--- a/inst/extdata/ExampleSites.xlsx
+++ b/inst/extdata/ExampleSites.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\1 ACASAK\MassWateR\Design\Example input files\Official Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD0FAFB-04B9-47AD-ADE1-9D42A4F19DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7284975D-130C-435F-888C-429C32E1F299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{C1F24EB6-C017-4D3B-9E45-481AAAEF6BC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="1" r:id="rId1"/>
+    <sheet name="Instructions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
     <author>Benjamen Wetherill</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{758121E0-B9E9-4BAF-8BC8-87A2C19C1D76}">
       <text>
         <r>
           <rPr>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>Monitoring Location ID</t>
   </si>
@@ -72,24 +73,87 @@
     <t>Monitoring Location Longitude</t>
   </si>
   <si>
+    <t>ABT-010</t>
+  </si>
+  <si>
+    <t>477 Lowell Rd, Concord</t>
+  </si>
+  <si>
     <t>ABT-144</t>
   </si>
   <si>
     <t>Rte 62, Stow</t>
   </si>
   <si>
+    <t>Lower Assabet</t>
+  </si>
+  <si>
     <t>Location Group</t>
   </si>
   <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Available Values</t>
+  </si>
+  <si>
+    <t>Template updated 5/19/23</t>
+  </si>
+  <si>
+    <t>The Sites tab must be formatted exactly like the Sites template, with all of the following fields.</t>
+  </si>
+  <si>
+    <t>The Sites tab must be the first tab in this workbook.</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>Latitude of monitoring location in decimal form.  At least 5 decimals.</t>
+  </si>
+  <si>
+    <t>Longitude of monitoring location in decimal form.  At least 5 decimals.</t>
+  </si>
+  <si>
+    <t>Required?</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Required for WQX</t>
+  </si>
+  <si>
+    <t>Required for mapping</t>
+  </si>
+  <si>
+    <t>An optional free-form grouping attribute.  This will allow you to summarize locations by group in the graphing and mapping analysis functions.</t>
+  </si>
+  <si>
+    <t>Location ID that is used in your Results file.  Must match exactly.</t>
+  </si>
+  <si>
+    <t>Name of monitoring location.</t>
+  </si>
+  <si>
+    <t>ABT-026</t>
+  </si>
+  <si>
+    <t>Rte 2, Concord</t>
+  </si>
+  <si>
     <t>Assabet</t>
   </si>
   <si>
-    <t>ABT-026</t>
-  </si>
-  <si>
-    <t>Rte 2, Concord</t>
-  </si>
-  <si>
     <t>ABT-062</t>
   </si>
   <si>
@@ -120,15 +184,15 @@
     <t>Mill Road, Westboro</t>
   </si>
   <si>
+    <t>DAN-013</t>
+  </si>
+  <si>
+    <t>Danforth Br, Hudson</t>
+  </si>
+  <si>
     <t>Tributaries</t>
   </si>
   <si>
-    <t>DAN-013</t>
-  </si>
-  <si>
-    <t>Danforth Br, Hudson</t>
-  </si>
-  <si>
     <t>ELZ-004</t>
   </si>
   <si>
@@ -145,13 +209,22 @@
   </si>
   <si>
     <t>Nashoba, Commonwealth, W. Concord</t>
+  </si>
+  <si>
+    <t>ABT-162</t>
+  </si>
+  <si>
+    <t>Cox Street bridge</t>
+  </si>
+  <si>
+    <t>Samples updated 5/19/23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +246,37 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -182,7 +286,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -199,12 +303,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -212,10 +359,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{AB6BBCBA-17F4-45F9-8A2F-1F3E8E9B14EB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -526,14 +697,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E91CED-45AD-41B9-A562-DB02F6AB88CF}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,15 +729,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>42.465938000000001</v>
@@ -575,15 +746,15 @@
         <v>-71.391127999999995</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>42.440764999999999</v>
@@ -592,15 +763,15 @@
         <v>-71.429409000000007</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>42.432355999999999</v>
@@ -609,15 +780,15 @@
         <v>-71.449406999999994</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>42.404519000000001</v>
@@ -626,126 +797,143 @@
         <v>-71.526348999999996</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C6">
-        <v>42.346645000000002</v>
+        <v>42.399797</v>
       </c>
       <c r="D6">
-        <v>-71.614690999999993</v>
+        <v>-71.545985000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C7">
-        <v>42.283169000000001</v>
+        <v>42.346645000000002</v>
       </c>
       <c r="D7">
-        <v>-71.638508999999999</v>
+        <v>-71.614690999999993</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C8">
-        <v>42.269452000000001</v>
+        <v>42.283169000000001</v>
       </c>
       <c r="D8">
-        <v>-71.633208999999994</v>
+        <v>-71.638508999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C9">
-        <v>42.403829999999999</v>
+        <v>42.269452000000001</v>
       </c>
       <c r="D9">
-        <v>-71.574769000000003</v>
+        <v>-71.633208999999994</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C10">
-        <v>42.426642000000001</v>
+        <v>42.403829999999999</v>
       </c>
       <c r="D10">
-        <v>-71.485172000000006</v>
+        <v>-71.574769000000003</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C11">
-        <v>42.292157000000003</v>
+        <v>42.426642000000001</v>
       </c>
       <c r="D11">
-        <v>-71.657336999999998</v>
+        <v>-71.485172000000006</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C12">
+        <v>42.292157000000003</v>
+      </c>
+      <c r="D12">
+        <v>-71.657336999999998</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13">
         <v>42.458965999999997</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>-71.397165999999999</v>
       </c>
-      <c r="E12" t="s">
-        <v>20</v>
+      <c r="E13" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -753,4 +941,151 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94448639-755A-4A37-8EC8-5E01F38D2633}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="96.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9">
+        <v>42.470370000000003</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="9">
+        <v>-71.362578999999997</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>